--- a/biology/Médecine/Centre_Oscar-Lambret/Centre_Oscar-Lambret.xlsx
+++ b/biology/Médecine/Centre_Oscar-Lambret/Centre_Oscar-Lambret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre Oscar-Lambret est le Centre régional de lutte contre le cancer des Hauts-de-France.
@@ -512,10 +524,12 @@
           <t>Missions et organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé à Lille, le Centre Oscar-Lambret dispense ses activités de soins, de recherche et d’enseignement dans le Nord de la France. Il est le site français le mieux loti en matière d’équipements de radiothérapie[1]. Il participe au service public hospitalier avec des tarifs conventionnels. Le Centre a été hautement certifié par la Haute Autorité de Santé en mars 2023.
-Le Centre Oscar Lambret est un établissement de santé privé d’intérêt collectif. Il est affilié à la Fédération nationale des centres de lutte contre le cancer et est partenaire avec le centre hospitalier régional universitaire de Lille et l'université de Lille en recherche[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé à Lille, le Centre Oscar-Lambret dispense ses activités de soins, de recherche et d’enseignement dans le Nord de la France. Il est le site français le mieux loti en matière d’équipements de radiothérapie. Il participe au service public hospitalier avec des tarifs conventionnels. Le Centre a été hautement certifié par la Haute Autorité de Santé en mars 2023.
+Le Centre Oscar Lambret est un établissement de santé privé d’intérêt collectif. Il est affilié à la Fédération nationale des centres de lutte contre le cancer et est partenaire avec le centre hospitalier régional universitaire de Lille et l'université de Lille en recherche.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Soins pratiqués</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le centre dispose d'une autorisation de traitement du cancer pour les pratiques suivantes :
 Chimiothérapie, radiothérapie externe et curiethérapie
@@ -578,7 +594,9 @@
           <t>Quelques chiffres  sur l'activité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>6 500 nouveaux patients par an
 212 lits et places
@@ -614,9 +632,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1930, le professeur Oscar Lambret crée l’un des premiers services de lutte contre le cancer en France, dans les locaux de l’Hôpital Saint-Sauveur. Les locaux actuels sont ouverts en 1955, le professeur Jules Driessens étant directeur[3]. C'est à cette occasion que le centre devient le centre Oscar-Lambret. En 1964, il devient Centre régional de lutte contre le cancer et entre dans la  Fédération française des centres de lutte contre le cancer.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1930, le professeur Oscar Lambret crée l’un des premiers services de lutte contre le cancer en France, dans les locaux de l’Hôpital Saint-Sauveur. Les locaux actuels sont ouverts en 1955, le professeur Jules Driessens étant directeur. C'est à cette occasion que le centre devient le centre Oscar-Lambret. En 1964, il devient Centre régional de lutte contre le cancer et entre dans la  Fédération française des centres de lutte contre le cancer.
 En 1998, le centre lance une Unité de Recherche Clinique pour trouver et évaluer de nouveaux traitements. En 2001, il est équipé du premier Tomographe à Émission de Positons  dédié aux cancers.
 </t>
         </is>
